--- a/biology/Médecine/Jean_de_Gaddesden/Jean_de_Gaddesden.xlsx
+++ b/biology/Médecine/Jean_de_Gaddesden/Jean_de_Gaddesden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean de Gaddesden (en anglais : John of Gaddesden) ou Jean l'Anglois[1],  est un médecin anglais, né vers 1280 et mort en 1361.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean de Gaddesden (en anglais : John of Gaddesden) ou Jean l'Anglois,  est un médecin anglais, né vers 1280 et mort en 1361.
 Médecin du roi d'Angleterre, il fut appelé à la cour pour soigner le fils d'Édouard II, atteint de la petite vérole.
-Selon John Freind, il était chanoine à la cathédrale Saint-Paul de Londres[2].
+Selon John Freind, il était chanoine à la cathédrale Saint-Paul de Londres.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rosa medicinae (La Rose médicale), traité de médecine achevé en 1307[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rosa medicinae (La Rose médicale), traité de médecine achevé en 1307.</t>
         </is>
       </c>
     </row>
